--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slit3-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slit3-Robo2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9766116666666665</v>
+        <v>0.6868273333333333</v>
       </c>
       <c r="H2">
-        <v>2.929835</v>
+        <v>2.060482</v>
       </c>
       <c r="I2">
-        <v>0.01639150952104937</v>
+        <v>0.01130642661970366</v>
       </c>
       <c r="J2">
-        <v>0.01639150952104937</v>
+        <v>0.01130642661970366</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.054425</v>
+        <v>0.9052683333333333</v>
       </c>
       <c r="N2">
-        <v>3.163275000000001</v>
+        <v>2.715805</v>
       </c>
       <c r="O2">
-        <v>0.5590543736060203</v>
+        <v>0.5200140314301739</v>
       </c>
       <c r="P2">
-        <v>0.5590543736060203</v>
+        <v>0.5200140314301738</v>
       </c>
       <c r="Q2">
-        <v>1.029763756625</v>
+        <v>0.6217630353344444</v>
       </c>
       <c r="R2">
-        <v>9.267873809625002</v>
+        <v>5.59586731801</v>
       </c>
       <c r="S2">
-        <v>0.009163745087747373</v>
+        <v>0.005879500487581534</v>
       </c>
       <c r="T2">
-        <v>0.009163745087747373</v>
+        <v>0.005879500487581533</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9766116666666665</v>
+        <v>0.6868273333333333</v>
       </c>
       <c r="H3">
-        <v>2.929835</v>
+        <v>2.060482</v>
       </c>
       <c r="I3">
-        <v>0.01639150952104937</v>
+        <v>0.01130642661970366</v>
       </c>
       <c r="J3">
-        <v>0.01639150952104937</v>
+        <v>0.01130642661970366</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.326999</v>
       </c>
       <c r="O3">
-        <v>0.4112569941996302</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="P3">
-        <v>0.4112569941996302</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="Q3">
-        <v>0.7575247905738887</v>
+        <v>0.5327488392797777</v>
       </c>
       <c r="R3">
-        <v>6.817723115164999</v>
+        <v>4.794739553517999</v>
       </c>
       <c r="S3">
-        <v>0.006741122936021384</v>
+        <v>0.005037766612515162</v>
       </c>
       <c r="T3">
-        <v>0.006741122936021384</v>
+        <v>0.005037766612515161</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9766116666666665</v>
+        <v>0.6868273333333333</v>
       </c>
       <c r="H4">
-        <v>2.929835</v>
+        <v>2.060482</v>
       </c>
       <c r="I4">
-        <v>0.01639150952104937</v>
+        <v>0.01130642661970366</v>
       </c>
       <c r="J4">
-        <v>0.01639150952104937</v>
+        <v>0.01130642661970366</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.05599533333333334</v>
+        <v>0.04422333333333334</v>
       </c>
       <c r="N4">
-        <v>0.167986</v>
+        <v>0.13267</v>
       </c>
       <c r="O4">
-        <v>0.0296886321943495</v>
+        <v>0.02540324564902162</v>
       </c>
       <c r="P4">
-        <v>0.0296886321943495</v>
+        <v>0.02540324564902162</v>
       </c>
       <c r="Q4">
-        <v>0.05468569581222223</v>
+        <v>0.03037379410444445</v>
       </c>
       <c r="R4">
-        <v>0.49217126231</v>
+        <v>0.27336414694</v>
       </c>
       <c r="S4">
-        <v>0.0004866414972806127</v>
+        <v>0.0002872199328329693</v>
       </c>
       <c r="T4">
-        <v>0.0004866414972806127</v>
+        <v>0.0002872199328329692</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>53.54043200000001</v>
+        <v>0.6868273333333333</v>
       </c>
       <c r="H5">
-        <v>160.621296</v>
+        <v>2.060482</v>
       </c>
       <c r="I5">
-        <v>0.898625862093698</v>
+        <v>0.01130642661970366</v>
       </c>
       <c r="J5">
-        <v>0.898625862093698</v>
+        <v>0.01130642661970366</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.054425</v>
+        <v>0.01569566666666667</v>
       </c>
       <c r="N5">
-        <v>3.163275000000001</v>
+        <v>0.047087</v>
       </c>
       <c r="O5">
-        <v>0.5590543736060203</v>
+        <v>0.009016074680602103</v>
       </c>
       <c r="P5">
-        <v>0.5590543736060203</v>
+        <v>0.009016074680602101</v>
       </c>
       <c r="Q5">
-        <v>56.45437001160002</v>
+        <v>0.01078021288155556</v>
       </c>
       <c r="R5">
-        <v>508.0893301044002</v>
+        <v>0.09702191593399999</v>
       </c>
       <c r="S5">
-        <v>0.5023807184389623</v>
+        <v>0.0001019395867739958</v>
       </c>
       <c r="T5">
-        <v>0.5023807184389623</v>
+        <v>0.0001019395867739958</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>53.54043200000001</v>
+        <v>53.540432</v>
       </c>
       <c r="H6">
         <v>160.621296</v>
       </c>
       <c r="I6">
-        <v>0.898625862093698</v>
+        <v>0.8813728519762372</v>
       </c>
       <c r="J6">
-        <v>0.898625862093698</v>
+        <v>0.881372851976237</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7756663333333332</v>
+        <v>0.9052683333333333</v>
       </c>
       <c r="N6">
-        <v>2.326999</v>
+        <v>2.715805</v>
       </c>
       <c r="O6">
-        <v>0.4112569941996302</v>
+        <v>0.5200140314301739</v>
       </c>
       <c r="P6">
-        <v>0.4112569941996302</v>
+        <v>0.5200140314301738</v>
       </c>
       <c r="Q6">
-        <v>41.52951057452267</v>
+        <v>48.46845764258667</v>
       </c>
       <c r="R6">
-        <v>373.765595170704</v>
+        <v>436.21611878328</v>
       </c>
       <c r="S6">
-        <v>0.3695661709547057</v>
+        <v>0.458326249949273</v>
       </c>
       <c r="T6">
-        <v>0.3695661709547057</v>
+        <v>0.4583262499492728</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>53.54043200000001</v>
+        <v>53.540432</v>
       </c>
       <c r="H7">
         <v>160.621296</v>
       </c>
       <c r="I7">
-        <v>0.898625862093698</v>
+        <v>0.8813728519762372</v>
       </c>
       <c r="J7">
-        <v>0.898625862093698</v>
+        <v>0.881372851976237</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.05599533333333334</v>
+        <v>0.7756663333333332</v>
       </c>
       <c r="N7">
-        <v>0.167986</v>
+        <v>2.326999</v>
       </c>
       <c r="O7">
-        <v>0.0296886321943495</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="P7">
-        <v>0.0296886321943495</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="Q7">
-        <v>2.998014336650668</v>
+        <v>41.52951057452266</v>
       </c>
       <c r="R7">
-        <v>26.98212902985601</v>
+        <v>373.765595170704</v>
       </c>
       <c r="S7">
-        <v>0.02667897270003004</v>
+        <v>0.3927103475049601</v>
       </c>
       <c r="T7">
-        <v>0.02667897270003004</v>
+        <v>0.39271034750496</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.036118666666667</v>
+        <v>53.540432</v>
       </c>
       <c r="H8">
-        <v>15.108356</v>
+        <v>160.621296</v>
       </c>
       <c r="I8">
-        <v>0.08452652153496815</v>
+        <v>0.8813728519762372</v>
       </c>
       <c r="J8">
-        <v>0.08452652153496815</v>
+        <v>0.881372851976237</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,33 +927,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.054425</v>
+        <v>0.04422333333333334</v>
       </c>
       <c r="N8">
-        <v>3.163275000000001</v>
+        <v>0.13267</v>
       </c>
       <c r="O8">
-        <v>0.5590543736060203</v>
+        <v>0.02540324564902162</v>
       </c>
       <c r="P8">
-        <v>0.5590543736060203</v>
+        <v>0.02540324564902162</v>
       </c>
       <c r="Q8">
-        <v>5.310209425100001</v>
+        <v>2.367736371146667</v>
       </c>
       <c r="R8">
-        <v>47.79188482590001</v>
+        <v>21.30962734032</v>
       </c>
       <c r="S8">
-        <v>0.0472549215498274</v>
+        <v>0.02238973106713113</v>
       </c>
       <c r="T8">
-        <v>0.0472549215498274</v>
+        <v>0.02238973106713112</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.036118666666667</v>
+        <v>53.540432</v>
       </c>
       <c r="H9">
-        <v>15.108356</v>
+        <v>160.621296</v>
       </c>
       <c r="I9">
-        <v>0.08452652153496815</v>
+        <v>0.8813728519762372</v>
       </c>
       <c r="J9">
-        <v>0.08452652153496815</v>
+        <v>0.881372851976237</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.7756663333333332</v>
+        <v>0.01569566666666667</v>
       </c>
       <c r="N9">
-        <v>2.326999</v>
+        <v>0.047087</v>
       </c>
       <c r="O9">
-        <v>0.4112569941996302</v>
+        <v>0.009016074680602103</v>
       </c>
       <c r="P9">
-        <v>0.4112569941996302</v>
+        <v>0.009016074680602101</v>
       </c>
       <c r="Q9">
-        <v>3.906347700404889</v>
+        <v>0.8403527738613333</v>
       </c>
       <c r="R9">
-        <v>35.157129303644</v>
+        <v>7.563174964751999</v>
       </c>
       <c r="S9">
-        <v>0.03476212317662131</v>
+        <v>0.007946523454873016</v>
       </c>
       <c r="T9">
-        <v>0.03476212317662131</v>
+        <v>0.007946523454873015</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.036118666666667</v>
+        <v>6.476716</v>
       </c>
       <c r="H10">
-        <v>15.108356</v>
+        <v>19.430148</v>
       </c>
       <c r="I10">
-        <v>0.08452652153496815</v>
+        <v>0.1066185206043934</v>
       </c>
       <c r="J10">
-        <v>0.08452652153496815</v>
+        <v>0.1066185206043934</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.05599533333333334</v>
+        <v>0.9052683333333333</v>
       </c>
       <c r="N10">
-        <v>0.167986</v>
+        <v>2.715805</v>
       </c>
       <c r="O10">
-        <v>0.0296886321943495</v>
+        <v>0.5200140314301739</v>
       </c>
       <c r="P10">
-        <v>0.0296886321943495</v>
+        <v>0.5200140314301738</v>
       </c>
       <c r="Q10">
-        <v>0.2819991434462223</v>
+        <v>5.863165898793333</v>
       </c>
       <c r="R10">
-        <v>2.537992291016001</v>
+        <v>52.76849308914</v>
       </c>
       <c r="S10">
-        <v>0.002509476808519432</v>
+        <v>0.05544312672461169</v>
       </c>
       <c r="T10">
-        <v>0.002509476808519432</v>
+        <v>0.05544312672461169</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.027175</v>
+        <v>6.476716</v>
       </c>
       <c r="H11">
-        <v>0.081525</v>
+        <v>19.430148</v>
       </c>
       <c r="I11">
-        <v>0.0004561068502845894</v>
+        <v>0.1066185206043934</v>
       </c>
       <c r="J11">
-        <v>0.0004561068502845894</v>
+        <v>0.1066185206043934</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1.054425</v>
+        <v>0.7756663333333332</v>
       </c>
       <c r="N11">
-        <v>3.163275000000001</v>
+        <v>2.326999</v>
       </c>
       <c r="O11">
-        <v>0.5590543736060203</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="P11">
-        <v>0.5590543736060203</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="Q11">
-        <v>0.02865399937500001</v>
+        <v>5.023770551761332</v>
       </c>
       <c r="R11">
-        <v>0.257885994375</v>
+        <v>45.213934965852</v>
       </c>
       <c r="S11">
-        <v>0.000254988529483266</v>
+        <v>0.04750565686602855</v>
       </c>
       <c r="T11">
-        <v>0.000254988529483266</v>
+        <v>0.04750565686602854</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>6.476716</v>
+      </c>
+      <c r="H12">
+        <v>19.430148</v>
+      </c>
+      <c r="I12">
+        <v>0.1066185206043934</v>
+      </c>
+      <c r="J12">
+        <v>0.1066185206043934</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="L12">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G12">
-        <v>0.027175</v>
-      </c>
-      <c r="H12">
-        <v>0.081525</v>
-      </c>
-      <c r="I12">
-        <v>0.0004561068502845894</v>
-      </c>
-      <c r="J12">
-        <v>0.0004561068502845894</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
       <c r="M12">
-        <v>0.7756663333333332</v>
+        <v>0.04422333333333334</v>
       </c>
       <c r="N12">
-        <v>2.326999</v>
+        <v>0.13267</v>
       </c>
       <c r="O12">
-        <v>0.4112569941996302</v>
+        <v>0.02540324564902162</v>
       </c>
       <c r="P12">
-        <v>0.4112569941996302</v>
+        <v>0.02540324564902162</v>
       </c>
       <c r="Q12">
-        <v>0.02107873260833333</v>
+        <v>0.2864219705733334</v>
       </c>
       <c r="R12">
-        <v>0.189708593475</v>
+        <v>2.57779773516</v>
       </c>
       <c r="S12">
-        <v>0.000187577132281901</v>
+        <v>0.00270845646964868</v>
       </c>
       <c r="T12">
-        <v>0.000187577132281901</v>
+        <v>0.002708456469648679</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6.476716</v>
+      </c>
+      <c r="H13">
+        <v>19.430148</v>
+      </c>
+      <c r="I13">
+        <v>0.1066185206043934</v>
+      </c>
+      <c r="J13">
+        <v>0.1066185206043934</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.01569566666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.047087</v>
+      </c>
+      <c r="O13">
+        <v>0.009016074680602103</v>
+      </c>
+      <c r="P13">
+        <v>0.009016074680602101</v>
+      </c>
+      <c r="Q13">
+        <v>0.1016563754306667</v>
+      </c>
+      <c r="R13">
+        <v>0.9149073788759999</v>
+      </c>
+      <c r="S13">
+        <v>0.0009612805441045254</v>
+      </c>
+      <c r="T13">
+        <v>0.0009612805441045252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.04265633333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.127969</v>
+      </c>
+      <c r="I14">
+        <v>0.0007022007996657373</v>
+      </c>
+      <c r="J14">
+        <v>0.0007022007996657372</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.9052683333333333</v>
+      </c>
+      <c r="N14">
+        <v>2.715805</v>
+      </c>
+      <c r="O14">
+        <v>0.5200140314301739</v>
+      </c>
+      <c r="P14">
+        <v>0.5200140314301738</v>
+      </c>
+      <c r="Q14">
+        <v>0.03861542778277777</v>
+      </c>
+      <c r="R14">
+        <v>0.347538850045</v>
+      </c>
+      <c r="S14">
+        <v>0.000365154268707672</v>
+      </c>
+      <c r="T14">
+        <v>0.0003651542687076718</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.04265633333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.127969</v>
+      </c>
+      <c r="I15">
+        <v>0.0007022007996657373</v>
+      </c>
+      <c r="J15">
+        <v>0.0007022007996657372</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7756663333333332</v>
+      </c>
+      <c r="N15">
+        <v>2.326999</v>
+      </c>
+      <c r="O15">
+        <v>0.4455666482402024</v>
+      </c>
+      <c r="P15">
+        <v>0.4455666482402024</v>
+      </c>
+      <c r="Q15">
+        <v>0.0330870816701111</v>
+      </c>
+      <c r="R15">
+        <v>0.297783735031</v>
+      </c>
+      <c r="S15">
+        <v>0.0003128772566986524</v>
+      </c>
+      <c r="T15">
+        <v>0.0003128772566986523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.04265633333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.127969</v>
+      </c>
+      <c r="I16">
+        <v>0.0007022007996657373</v>
+      </c>
+      <c r="J16">
+        <v>0.0007022007996657372</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="L16">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.027175</v>
-      </c>
-      <c r="H13">
-        <v>0.081525</v>
-      </c>
-      <c r="I13">
-        <v>0.0004561068502845894</v>
-      </c>
-      <c r="J13">
-        <v>0.0004561068502845894</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.05599533333333334</v>
-      </c>
-      <c r="N13">
-        <v>0.167986</v>
-      </c>
-      <c r="O13">
-        <v>0.0296886321943495</v>
-      </c>
-      <c r="P13">
-        <v>0.0296886321943495</v>
-      </c>
-      <c r="Q13">
-        <v>0.001521673183333334</v>
-      </c>
-      <c r="R13">
-        <v>0.01369505865</v>
-      </c>
-      <c r="S13">
-        <v>1.354118851942241E-05</v>
-      </c>
-      <c r="T13">
-        <v>1.354118851942241E-05</v>
+      <c r="M16">
+        <v>0.04422333333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.13267</v>
+      </c>
+      <c r="O16">
+        <v>0.02540324564902162</v>
+      </c>
+      <c r="P16">
+        <v>0.02540324564902162</v>
+      </c>
+      <c r="Q16">
+        <v>0.001886405247777778</v>
+      </c>
+      <c r="R16">
+        <v>0.01697764723</v>
+      </c>
+      <c r="S16">
+        <v>1.783817940884815E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.783817940884814E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.04265633333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.127969</v>
+      </c>
+      <c r="I17">
+        <v>0.0007022007996657373</v>
+      </c>
+      <c r="J17">
+        <v>0.0007022007996657372</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.01569566666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.047087</v>
+      </c>
+      <c r="O17">
+        <v>0.009016074680602103</v>
+      </c>
+      <c r="P17">
+        <v>0.009016074680602101</v>
+      </c>
+      <c r="Q17">
+        <v>0.0006695195892222222</v>
+      </c>
+      <c r="R17">
+        <v>0.006025676303</v>
+      </c>
+      <c r="S17">
+        <v>6.331094850564804E-06</v>
+      </c>
+      <c r="T17">
+        <v>6.331094850564802E-06</v>
       </c>
     </row>
   </sheetData>
